--- a/Design/PinList_V1.1.xlsx
+++ b/Design/PinList_V1.1.xlsx
@@ -685,7 +685,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">

--- a/Design/PinList_V1.1.xlsx
+++ b/Design/PinList_V1.1.xlsx
@@ -123,9 +123,6 @@
     <t>PA1</t>
   </si>
   <si>
-    <t>ADC1_IN1</t>
-  </si>
-  <si>
     <t>PB4</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>PB2</t>
   </si>
   <si>
-    <t>BOOT1</t>
-  </si>
-  <si>
     <t>PA13</t>
   </si>
   <si>
@@ -192,21 +186,12 @@
     <t>PA2</t>
   </si>
   <si>
-    <t>ADC1_IN2</t>
-  </si>
-  <si>
-    <t>ADC1_IN3</t>
-  </si>
-  <si>
     <t>PA3</t>
   </si>
   <si>
     <t>PA4</t>
   </si>
   <si>
-    <t>ADC1_IN4</t>
-  </si>
-  <si>
     <t>PA5</t>
   </si>
   <si>
@@ -325,6 +310,21 @@
   </si>
   <si>
     <t>PB14/USART3_RTS</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>USB/FS_POWERSWITCHON</t>
   </si>
 </sst>
 </file>
@@ -684,15 +684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,13 +704,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1180,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1312,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,10 +1411,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PinList_V1.1.xlsx
+++ b/Design/PinList_V1.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>STM32F205RCT</t>
   </si>
@@ -153,9 +153,6 @@
     <t>PC15</t>
   </si>
   <si>
-    <t>LED Green2</t>
-  </si>
-  <si>
     <t>PC14</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>PA0</t>
   </si>
   <si>
-    <t>ADC1_IN0</t>
-  </si>
-  <si>
     <t>PA2</t>
   </si>
   <si>
@@ -225,18 +219,9 @@
     <t>PB1</t>
   </si>
   <si>
-    <t>GPIO3 OUT</t>
-  </si>
-  <si>
-    <t>GPIO4 OUT</t>
-  </si>
-  <si>
     <t>GPIO5 OUT</t>
   </si>
   <si>
-    <t>GPIO2 OUT</t>
-  </si>
-  <si>
     <t>GPIO1 OUT</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>SWCK</t>
   </si>
   <si>
-    <t>TRACESWO</t>
-  </si>
-  <si>
     <t>PB5</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>PB9</t>
   </si>
   <si>
-    <t>LED RED1</t>
-  </si>
-  <si>
     <t>VCC</t>
   </si>
   <si>
@@ -312,19 +291,43 @@
     <t>PB14/USART3_RTS</t>
   </si>
   <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>PINK</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
     <t>USB/FS_POWERSWITCHON</t>
+  </si>
+  <si>
+    <t>LED Green</t>
+  </si>
+  <si>
+    <t>RED (ADC Sensor)</t>
+  </si>
+  <si>
+    <t>BLUE (ADC Sensor)</t>
+  </si>
+  <si>
+    <t>GREEN (ADC Sensor)</t>
+  </si>
+  <si>
+    <t>GPIO4_OUT</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+  </si>
+  <si>
+    <t>PROGRAMMING_EN</t>
+  </si>
+  <si>
+    <t>GPIO6 OUT</t>
+  </si>
+  <si>
+    <t>GPIO2_OUT</t>
+  </si>
+  <si>
+    <t>GPIO3_OUT</t>
+  </si>
+  <si>
+    <t>LED BLUE</t>
   </si>
 </sst>
 </file>
@@ -684,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +757,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +809,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +831,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +897,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +919,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +930,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +941,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +952,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +963,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +974,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +985,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +996,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1007,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1029,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1040,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,10 +1062,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1073,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1095,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1106,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,10 +1117,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,10 +1128,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,10 +1161,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1172,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1183,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,7 +1219,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,10 +1238,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1263,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1318,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1337,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1381,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,10 +1392,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,10 +1414,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
